--- a/biology/Zoologie/Brillant_fer-de-lance/Brillant_fer-de-lance.xlsx
+++ b/biology/Zoologie/Brillant_fer-de-lance/Brillant_fer-de-lance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliodoxa jacula
 Le Brillant fer-de-lance (Heliodoxa jacula) est une espèce de colibris (famille des Trochilidae).
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau mesure environ 12 cm de longueur. Il possède un bec droit et un plumage essentiellement vert avec une petite tache blanche derrière chaque œil. Il présente un dimorphisme sexuel. Le mâle a une tache violette sur la gorge et une queue longue et profondément échancrée. La femelle a le dessous du corps pâle tacheté de vert, un trait blanc sous chaque œil et la queue nettement plus courte que celle du mâle avec l'extrémité blanche[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau mesure environ 12 cm de longueur. Il possède un bec droit et un plumage essentiellement vert avec une petite tache blanche derrière chaque œil. Il présente un dimorphisme sexuel. Le mâle a une tache violette sur la gorge et une queue longue et profondément échancrée. La femelle a le dessous du corps pâle tacheté de vert, un trait blanc sous chaque œil et la queue nettement plus courte que celle du mâle avec l'extrémité blanche.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est présent au Costa Rica, en Colombie, en Équateur, au Nicaragua et au Panama.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales humides de basses altitudes et de montagne surtout entre 700 et 2 000 m d'altitude.
 </t>
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se nourrit de nectar de préférence en se perchant qu'en volant sur place comme de nombreuses espèces de colibris.
 </t>
@@ -636,7 +656,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après Alan P. Peterson, cette espèce est constituée des trois sous-espèces suivantes :
 Heliodoxa jacula henryi Lawrence, 1867 ;
